--- a/Test2/resources/Data.xlsx
+++ b/Test2/resources/Data.xlsx
@@ -4,22 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="11475" windowHeight="3405"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14865" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>ControlFlag</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>url</t>
   </si>
@@ -34,13 +32,22 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>user@1</t>
+  </si>
+  <si>
+    <t>Rocky@1</t>
+  </si>
+  <si>
+    <t>Control Flag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +59,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,9 +93,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -386,42 +402,53 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
